--- a/DiarioProyecto.xlsx
+++ b/DiarioProyecto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javie\OneDrive\Escritorio\Proyecto-TT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8BE0FB-CA00-4E14-8E89-7A6CF4863D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF1666-2220-47B8-B417-709C789AAF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{171297B1-7AE2-B240-830B-C3611B6C68F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{171297B1-7AE2-B240-830B-C3611B6C68F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>Accel.m</t>
   </si>
@@ -204,10 +204,6 @@
   </si>
   <si>
     <t>Pedir consejo a Miguel el próximo día de clase.</t>
-  </si>
-  <si>
-    <t>Difícil. Utiliza vectores columna, así como la función find. Además, 
-tiene muchos parámetros de salida.</t>
   </si>
   <si>
     <t>Sigo sin saber qué épsilon utilizar en mis asserts (fallan aunque
@@ -225,9 +221,6 @@
     <t>Preguntar a Miguel próximo día.</t>
   </si>
   <si>
-    <t>Preguntar a Miguel próximo día de clase.</t>
-  </si>
-  <si>
     <t>Tengo legítima curiosidad por saber si la única forma que queda
 es comerse pasar la matriz a mano.</t>
   </si>
@@ -236,17 +229,88 @@
 lo hemos matado).</t>
   </si>
   <si>
-    <t>Creo que la función eps de Matlab va a tener que ver quizás con
-el resto de mis dudas acerca de utilizar un épsilon u otro.</t>
-  </si>
-  <si>
-    <t>He preguntado a ChatGPT y me daba una solución relacionada
-con pedir a mi sistema el grado de precisión de double. No creo
-que tenga que ver exactamente con lo que hace eps en Matlab.
+    <t>La solución a lo primero fue implementar la clase de constantes.
+Para lo segundo, preguntar a Miguel próximo día de clase.</t>
+  </si>
+  <si>
+    <t>Difícil. Utiliza vectores columna, así como la función find. Además, 
+tiene muchos parámetros de salida. No se me ocurre aún cómo
+testearla siquiera en Matlab.</t>
+  </si>
+  <si>
+    <t>Ver qué dicen mis compañeros o preguntar a Miguel otro día.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Repositorio del proyecto:    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>https://github.com/jajimesa/Proyecto-TT1</t>
+    </r>
+  </si>
+  <si>
+    <t>Fácil, pero un poco pesada de testear y de compilar: muchos
+parámetros de E/S y había alguna variable que no se utilizaba
+y tuve que comentarla para no tener advertencias al compilar.</t>
+  </si>
+  <si>
+    <t>Otra vez me da problemas el épsilon que defino con mi test.
+¡Como tal está bien, pero no sé qué precisión fijar!</t>
+  </si>
+  <si>
+    <t>Traducir el bucle for i=N:-1:2 a C++. Esquivar las limitaciones de
+mi clase Matrix a la hora de copiar matrices o asignarlas con =. Encontrar el bug.</t>
+  </si>
+  <si>
+    <t>No sé qué hacer con la función "eps" de Matlab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Preguntar a Miguel.</t>
   </si>
   <si>
-    <t>XXXX</t>
+    <t>De nuevo no sé qué hacer con "eps".</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="7"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Amarillo: dudas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> Azul: ha quedado por hacer</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -256,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,8 +366,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="7"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +406,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,14 +451,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EB0CE-B6BF-CB4D-BCAF-F7FB8362BFF6}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -680,81 +800,71 @@
     <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.09765625" customWidth="1"/>
     <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" customWidth="1"/>
     <col min="6" max="6" width="60.296875" customWidth="1"/>
     <col min="7" max="7" width="62.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45403</v>
-      </c>
-      <c r="C4" s="5">
-        <v>45403</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -765,63 +875,83 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45403</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45403</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11">
+        <v>45410</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45410</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="11">
+        <v>45410</v>
+      </c>
+      <c r="C8" s="11">
+        <v>45410</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>45409</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -830,30 +960,32 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>45403</v>
-      </c>
-      <c r="C11" s="5">
-        <v>45403</v>
-      </c>
-      <c r="D11" s="8">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E11" s="8">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45409</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -863,19 +995,29 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45403</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45403</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
+      <c r="A14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -884,201 +1026,211 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11">
+        <v>45410</v>
+      </c>
+      <c r="C16" s="11">
+        <v>45410</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B17" s="11">
         <v>45407</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C17" s="11">
         <v>45407</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D17" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E17" s="13">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="F17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45409</v>
-      </c>
-      <c r="C19" s="5">
-        <v>45409</v>
-      </c>
-      <c r="D19" s="8">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E19" s="8">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11">
+        <v>45409</v>
+      </c>
+      <c r="C21" s="11">
+        <v>45409</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B23" s="5">
         <v>45409</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C23" s="5">
         <v>45409</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D23" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="11">
+        <v>45409</v>
+      </c>
+      <c r="C24" s="11">
+        <v>45409</v>
+      </c>
+      <c r="D24" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="E21" s="8">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="E24" s="13">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17">
         <v>45409</v>
       </c>
-      <c r="C22" s="5">
-        <v>45409</v>
-      </c>
-      <c r="D22" s="8">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="C25" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10">
-        <v>45403</v>
-      </c>
-      <c r="C26" s="10">
-        <v>45407</v>
-      </c>
-      <c r="D26" s="11">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E26" s="11">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1087,51 +1239,43 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5">
-        <v>45393</v>
-      </c>
-      <c r="C28" s="5">
-        <v>45400</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E28" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="11">
+        <v>45403</v>
+      </c>
+      <c r="C28" s="11">
+        <v>45407</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5">
-        <v>45393</v>
-      </c>
-      <c r="C29" s="5">
-        <v>45400</v>
-      </c>
-      <c r="D29" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5">
         <v>45393</v>
@@ -1143,7 +1287,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="E30" s="8">
-        <v>1.3888888888888888E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>53</v>
@@ -1152,19 +1296,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5">
-        <v>45407</v>
+        <v>45393</v>
       </c>
       <c r="C31" s="5">
-        <v>45407</v>
+        <v>45400</v>
       </c>
       <c r="D31" s="8">
-        <v>6.9444444444444441E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E31" s="8">
-        <v>6.9444444444444441E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>53</v>
@@ -1172,30 +1316,50 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>45393</v>
+      </c>
+      <c r="C32" s="5">
+        <v>45400</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7"/>
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45407</v>
+      </c>
+      <c r="C33" s="5">
+        <v>45407</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1206,18 +1370,18 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1228,7 +1392,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1239,7 +1403,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1250,18 +1414,18 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1272,18 +1436,18 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1293,29 +1457,19 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5">
-        <v>45403</v>
-      </c>
-      <c r="C43" s="5">
-        <v>45403</v>
-      </c>
-      <c r="D43" s="8">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E43" s="8">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
+      <c r="A44" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1326,7 +1480,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="5">
         <v>45403</v>
@@ -1341,33 +1495,79 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45410</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45410</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E46" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45403</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45403</v>
+      </c>
+      <c r="D47" s="8">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E47" s="8">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="6" t="s">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="8">
-        <f>SUM(D2:D45)</f>
-        <v>0.17708333333333337</v>
-      </c>
-      <c r="E46" s="8">
-        <f>SUM(E2:E45)</f>
-        <v>0.18055555555555558</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="D48" s="8">
+        <f>SUM(D4:D47)</f>
+        <v>0.26041666666666663</v>
+      </c>
+      <c r="E48" s="8">
+        <f>SUM(E4:E47)</f>
+        <v>0.29513888888888878</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G49" s="9"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DiarioProyecto.xlsx
+++ b/DiarioProyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javie\OneDrive\Escritorio\Proyecto-TT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AF1666-2220-47B8-B417-709C789AAF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FFC9C-2D86-469F-B41C-4042E219FD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{171297B1-7AE2-B240-830B-C3611B6C68F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>Accel.m</t>
   </si>
@@ -188,22 +188,10 @@
     <t>Total =</t>
   </si>
   <si>
-    <t>minutos</t>
-  </si>
-  <si>
     <t>Horas estimadas</t>
   </si>
   <si>
     <t>Horas reales</t>
-  </si>
-  <si>
-    <t>Muy fácil</t>
-  </si>
-  <si>
-    <t>Fácil</t>
-  </si>
-  <si>
-    <t>Pedir consejo a Miguel el próximo día de clase.</t>
   </si>
   <si>
     <t>Sigo sin saber qué épsilon utilizar en mis asserts (fallan aunque
@@ -218,19 +206,8 @@
     <t>Me pasa como con Position.m. ¡No puedo testearla!</t>
   </si>
   <si>
-    <t>Preguntar a Miguel próximo día.</t>
-  </si>
-  <si>
-    <t>Tengo legítima curiosidad por saber si la única forma que queda
-es comerse pasar la matriz a mano.</t>
-  </si>
-  <si>
     <t>Pero qué es esa matriz, por favor (Dios ha muerto, y nosotros
 lo hemos matado).</t>
-  </si>
-  <si>
-    <t>La solución a lo primero fue implementar la clase de constantes.
-Para lo segundo, preguntar a Miguel próximo día de clase.</t>
   </si>
   <si>
     <t>Difícil. Utiliza vectores columna, así como la función find. Además, 
@@ -239,9 +216,6 @@
   </si>
   <si>
     <t>Ver qué dicen mis compañeros o preguntar a Miguel otro día.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> X</t>
   </si>
   <si>
     <t>X</t>
@@ -270,15 +244,7 @@
 ¡Como tal está bien, pero no sé qué precisión fijar!</t>
   </si>
   <si>
-    <t>Traducir el bucle for i=N:-1:2 a C++. Esquivar las limitaciones de
-mi clase Matrix a la hora de copiar matrices o asignarlas con =. Encontrar el bug.</t>
-  </si>
-  <si>
     <t>No sé qué hacer con la función "eps" de Matlab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Preguntar a Miguel.</t>
   </si>
   <si>
     <t>De nuevo no sé qué hacer con "eps".</t>
@@ -312,6 +278,109 @@
       <t xml:space="preserve"> Azul: ha quedado por hacer</t>
     </r>
   </si>
+  <si>
+    <t>Preguntar a Miguel. Respuesta: declarar una constante eps con
+el valor de Matlab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Preguntar a Miguel. Repuesta: declarar una constante eps con
+el valor de Matlab</t>
+  </si>
+  <si>
+    <t>Preguntar a Miguel próximo día. Respuesta: cada test requiere su
+propio épsilon, es un buen proceder!</t>
+  </si>
+  <si>
+    <t>Preguntar a Miguel próximo día. Respuesta: cuando no detecte
+constantes, ejecutar la aplicación principal y cargarán en memoria.</t>
+  </si>
+  <si>
+    <t>La solución a lo primero fue implementar la clase de constantes.
+Para lo segundo, preguntar a Miguel próximo día de clase. Respuesta: cuando no detecte constantes, ejecutar la aplicación
+principal y cargarán en memoria.</t>
+  </si>
+  <si>
+    <t>Tengo legítima curiosidad por saber si la única forma que queda
+es comerse pasar la matriz a mano. Respuesta: hacer un arreglo multidimensional</t>
+  </si>
+  <si>
+    <t>Pedir consejo a Miguel el próximo día de clase. Respuesta: utilizar
+para cada test un épsilon distinto si hace falta.</t>
+  </si>
+  <si>
+    <t>Difícil. Mucho subíndice y cualquier despiste puede jugártela.</t>
+  </si>
+  <si>
+    <t>Fácil. Tuve que implementar la función sign de Matlab.</t>
+  </si>
+  <si>
+    <t>Fácil.</t>
+  </si>
+  <si>
+    <t>Añadir a mi clase Matrix los casos de matriz cuadrada por matriz
+columna, que debe devolver matriz fila. Añadir casos a matriz
+transpuesta para calcularla a matrices fila y columna.</t>
+  </si>
+  <si>
+    <t>Muy fácil.</t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>Fácil, pero tuve que sobrecargar el operador + de matrices para
+sumarles escalares.</t>
+  </si>
+  <si>
+    <t>Se juntó como dificultades las copias de matrices (no usé al final la redifinición del operador =) junto con una chapuza que no fui
+capaz de ver.</t>
+  </si>
+  <si>
+    <t>Miguel vio el fallo de un vistazo.</t>
+  </si>
+  <si>
+    <t>Fácil aparentemente. No conseguía que dos de las salidas coincidieran en el test.</t>
+  </si>
+  <si>
+    <t>Era por culpa de no haber reimplementado la función módulo.</t>
+  </si>
+  <si>
+    <t>Difícil. Tuve que implementar la lectura de un fichero y luego
+arreglar dicha implementación. Muchos tests y pruebas, problemas de precisión con Legendre causa usar un epsilon de una magnitud enorme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementar la lectura del fichero GGM03S. Imprimir el fichero
+para comprobar que está bien. Escoger un épsilon elevadísimo.
+Testear los valores con el Legendre esperado y el obtenido. </t>
+  </si>
+  <si>
+    <t>Necesario leer otro fichero más, esta vez uno compilado de
+Matlab. Además, implementar subVector. Problemas al copiar
+matrices desconociendo sus dimensiones porque se calculan
+en tiempo de ejecución.</t>
+  </si>
+  <si>
+    <t>En clase solucionamos lo del fichero. Para subVector, pues 
+implementarlo y ya. Lo de la copia fue putadón porque tuve que
+crear otro método "trueCopy" que copiaba las matrices tal cual
+generando datos nuevos y con n_row y n_column nuevos,
+porque si no petaban las funciones al actualizar el antiguo copy.
+La idea fue cojonuda y me salvó mucho tiempo!</t>
+  </si>
+  <si>
+    <t>Difícil. Hay que cuadrar la dimensionalidad de las operaciones
+entre matrices cuadradas y vectores. Actualización: NOPE, hacer
+con escalares, los autores originales son unos paquetes!</t>
+  </si>
+  <si>
+    <t>(las suma mal)</t>
+  </si>
+  <si>
+    <t>Difícil. Pasar funciones como parámetros y utilizar clases de
+integración numérica externas. Hay que hacer un bypass a código.
+No he tenido tiempo esta iteración.</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,8 +464,24 @@
       <color theme="4"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,13 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -454,26 +545,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EB0CE-B6BF-CB4D-BCAF-F7FB8362BFF6}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -807,26 +901,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -839,10 +933,10 @@
         <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>45</v>
@@ -862,16 +956,28 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="5">
+        <v>45417</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45424</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -884,13 +990,13 @@
         <v>45403</v>
       </c>
       <c r="D6" s="8">
-        <v>1.7361111111111112E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E6" s="8">
-        <v>2.0833333333333332E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -898,56 +1004,68 @@
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="5">
         <v>45410</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="5">
         <v>45410</v>
       </c>
-      <c r="D7" s="13">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>59</v>
+      <c r="D7" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="5">
         <v>45410</v>
       </c>
-      <c r="C8" s="11">
-        <v>45410</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="5">
+        <v>45421</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="22">
+        <v>45391</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -960,38 +1078,48 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="5">
         <v>45409</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="5">
+        <v>45410</v>
+      </c>
+      <c r="D11" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="5">
+        <v>45417</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45417</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1005,18 +1133,18 @@
         <v>45403</v>
       </c>
       <c r="D13" s="8">
-        <v>1.0416666666666666E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E13" s="8">
-        <v>1.0416666666666666E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3"/>
@@ -1027,7 +1155,7 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3"/>
@@ -1037,118 +1165,162 @@
       <c r="F15" s="3"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="5">
         <v>45410</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="5">
         <v>45410</v>
       </c>
-      <c r="D16" s="13">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="E16" s="13">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>72</v>
+      <c r="D16" s="8">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="5">
         <v>45407</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="5">
         <v>45407</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E17" s="13">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="E17" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="5">
+        <v>45424</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45424</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="5">
+        <v>45417</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45417</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>45416</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45416</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="5">
         <v>45409</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="5">
         <v>45409</v>
       </c>
-      <c r="D21" s="13">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="E21" s="13">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="D21" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="5">
+        <v>45417</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45417</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1161,13 +1333,13 @@
         <v>45409</v>
       </c>
       <c r="D23" s="8">
-        <v>1.0416666666666666E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E23" s="8">
-        <v>1.3888888888888888E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -1175,102 +1347,132 @@
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="5">
         <v>45409</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="5">
         <v>45409</v>
       </c>
-      <c r="D24" s="13">
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E24" s="13">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D24" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="5">
         <v>45409</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>60</v>
+      <c r="C25" s="5">
+        <v>45416</v>
+      </c>
+      <c r="D25" s="8">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="5">
+        <v>45416</v>
+      </c>
+      <c r="C26" s="5">
+        <v>45416</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="5">
+        <v>45416</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45416</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="5">
         <v>45403</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="5">
         <v>45407</v>
       </c>
-      <c r="D28" s="13">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="D28" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45416</v>
+      </c>
+      <c r="C29" s="5">
+        <v>45416</v>
+      </c>
+      <c r="D29" s="8">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1284,13 +1486,13 @@
         <v>45400</v>
       </c>
       <c r="D30" s="8">
-        <v>1.3888888888888888E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E30" s="8">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -1305,13 +1507,13 @@
         <v>45400</v>
       </c>
       <c r="D31" s="8">
-        <v>1.3888888888888888E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E31" s="8">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -1326,13 +1528,13 @@
         <v>45400</v>
       </c>
       <c r="D32" s="8">
-        <v>1.3888888888888888E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E32" s="8">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -1343,29 +1545,39 @@
       <c r="B33" s="5">
         <v>45407</v>
       </c>
-      <c r="C33" s="5">
-        <v>45407</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1.0416666666666666E-2</v>
+      <c r="C33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="5">
+        <v>45416</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45417</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1377,32 +1589,42 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="5">
+        <v>45416</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45416</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="3"/>
@@ -1413,29 +1635,41 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="B40" s="5">
+        <v>45416</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45421</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E40" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="3"/>
@@ -1446,7 +1680,7 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="3"/>
@@ -1457,18 +1691,28 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="3"/>
+      <c r="B43" s="5">
+        <v>45416</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45416</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E43" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="3"/>
@@ -1489,13 +1733,13 @@
         <v>45403</v>
       </c>
       <c r="D45" s="8">
-        <v>6.9444444444444441E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E45" s="8">
-        <v>6.9444444444444441E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -1510,13 +1754,13 @@
         <v>45410</v>
       </c>
       <c r="D46" s="8">
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E46" s="8">
-        <v>2.0833333333333332E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -1531,13 +1775,13 @@
         <v>45403</v>
       </c>
       <c r="D47" s="8">
-        <v>6.9444444444444441E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="E47" s="8">
-        <v>6.9444444444444441E-3</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -1549,18 +1793,23 @@
       </c>
       <c r="D48" s="8">
         <f>SUM(D4:D47)</f>
-        <v>0.26041666666666663</v>
+        <v>0.93402777777777846</v>
       </c>
       <c r="E48" s="8">
         <f>SUM(E4:E47)</f>
-        <v>0.29513888888888878</v>
+        <v>1.4722222222222219</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G51" s="9"/>
     </row>
   </sheetData>

--- a/DiarioProyecto.xlsx
+++ b/DiarioProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javie\OneDrive\Escritorio\Proyecto-TT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FFC9C-2D86-469F-B41C-4042E219FD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF8F8B-10A1-4DF4-AB75-8E4ED191CEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{171297B1-7AE2-B240-830B-C3611B6C68F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>Accel.m</t>
   </si>
@@ -380,6 +380,27 @@
     <t>Difícil. Pasar funciones como parámetros y utilizar clases de
 integración numérica externas. Hay que hacer un bypass a código.
 No he tenido tiempo esta iteración.</t>
+  </si>
+  <si>
+    <t>Fácil (una vez te funciona EqnEquinox jeje).</t>
+  </si>
+  <si>
+    <t>Fácil, necesita gast implementada antes.</t>
+  </si>
+  <si>
+    <t>Normal. Hay que tener cuidado con las cadenas en C++ (acaban
+en '\0'.</t>
+  </si>
+  <si>
+    <t>Normal.</t>
+  </si>
+  <si>
+    <t>Se me complicó porque no obtenía los valores correctos, por
+culpa de inicializar mal un valor de AuxParam.</t>
+  </si>
+  <si>
+    <t>Como no tengo debugger, solucioné el problema imprimiendo por
+pantalla todos los resultados parciales tanto en C++ como Matlab.</t>
   </si>
 </sst>
 </file>
@@ -554,6 +575,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -562,12 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EB0CE-B6BF-CB4D-BCAF-F7FB8362BFF6}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -901,26 +922,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -949,11 +970,21 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="5">
+        <v>45428</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45428</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1047,25 +1078,25 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>45391</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1075,7 +1106,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1147,11 +1178,21 @@
       <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="5">
+        <v>45427</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45427</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1313,7 +1354,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E22" s="8">
-        <v>0.125</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>87</v>
@@ -1578,18 +1619,30 @@
       <c r="F34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="B35" s="5">
+        <v>45428</v>
+      </c>
+      <c r="C35" s="5">
+        <v>45429</v>
+      </c>
+      <c r="D35" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E35" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
@@ -1624,11 +1677,15 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="B38" s="5">
+        <v>45427</v>
+      </c>
+      <c r="C38" s="5">
+        <v>45427</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="3"/>
@@ -1672,22 +1729,42 @@
       <c r="A41" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7"/>
+      <c r="B41" s="5">
+        <v>45427</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45427</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="3"/>
+      <c r="B42" s="5">
+        <v>45427</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45427</v>
+      </c>
+      <c r="D42" s="8">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E42" s="8">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1715,11 +1792,19 @@
       <c r="A44" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="5">
+        <v>45427</v>
+      </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="8">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E44" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1793,11 +1878,11 @@
       </c>
       <c r="D48" s="8">
         <f>SUM(D4:D47)</f>
-        <v>0.93402777777777846</v>
+        <v>1.1041666666666672</v>
       </c>
       <c r="E48" s="8">
         <f>SUM(E4:E47)</f>
-        <v>1.4722222222222219</v>
+        <v>1.7569444444444442</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>77</v>
@@ -1818,5 +1903,6 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DiarioProyecto.xlsx
+++ b/DiarioProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javie\OneDrive\Escritorio\Proyecto-TT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AF8F8B-10A1-4DF4-AB75-8E4ED191CEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E512DF80-85D1-4223-B377-B7D8F3357A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{171297B1-7AE2-B240-830B-C3611B6C68F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="97">
   <si>
     <t>Accel.m</t>
   </si>
@@ -377,11 +377,6 @@
     <t>(las suma mal)</t>
   </si>
   <si>
-    <t>Difícil. Pasar funciones como parámetros y utilizar clases de
-integración numérica externas. Hay que hacer un bypass a código.
-No he tenido tiempo esta iteración.</t>
-  </si>
-  <si>
     <t>Fácil (una vez te funciona EqnEquinox jeje).</t>
   </si>
   <si>
@@ -401,6 +396,13 @@
   <si>
     <t>Como no tengo debugger, solucioné el problema imprimiendo por
 pantalla todos los resultados parciales tanto en C++ como Matlab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difícil. Pasar funciones como parámetros y utilizar clases de
+integración numérica externas. Hay que hacer un bypass a código. </t>
+  </si>
+  <si>
+    <t>Estaba invocando a "ed" en lugar de a "edo" jeje.</t>
   </si>
 </sst>
 </file>
@@ -491,18 +493,17 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Roboto"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="7" tint="-0.249977111117893"/>
+      <color theme="5"/>
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,12 +528,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -546,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,19 +563,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -906,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EB0CE-B6BF-CB4D-BCAF-F7FB8362BFF6}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -922,26 +908,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -983,12 +969,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="5">
@@ -1050,7 +1036,7 @@
       <c r="F7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1077,35 +1063,45 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19">
-        <v>45391</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="18"/>
+      <c r="B9" s="5">
+        <v>45421</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45430</v>
+      </c>
+      <c r="D9" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="5">
+        <v>45429</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="3"/>
     </row>
@@ -1175,7 +1171,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="5">
@@ -1191,19 +1187,29 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="5">
+        <v>45428</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45428</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1253,7 +1259,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5">
@@ -1622,7 +1628,7 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="5">
@@ -1638,10 +1644,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1666,18 +1672,18 @@
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="5">
@@ -1692,13 +1698,13 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
@@ -1726,7 +1732,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="5">
@@ -1742,12 +1748,12 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="5">
@@ -1763,7 +1769,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -1789,13 +1795,15 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="5">
         <v>45427</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="5">
+        <v>45428</v>
+      </c>
       <c r="D44" s="8">
         <v>3.125E-2</v>
       </c>
@@ -1803,7 +1811,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="3"/>
     </row>
@@ -1878,11 +1886,11 @@
       </c>
       <c r="D48" s="8">
         <f>SUM(D4:D47)</f>
-        <v>1.1041666666666672</v>
+        <v>1.1666666666666672</v>
       </c>
       <c r="E48" s="8">
         <f>SUM(E4:E47)</f>
-        <v>1.7569444444444442</v>
+        <v>1.8437499999999998</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>77</v>
